--- a/outputs-HGR-r202-archive/f__Butyricicoccaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Butyricicoccaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,29 +565,29 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3315.fa</t>
+          <t>even_MAG-GUT81714.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.404618983270638e-06</v>
+        <v>4.02608777311964e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9938805814763771</v>
+        <v>0.9964764131359134</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005790100540366975</v>
+        <v>0.003356808508339486</v>
       </c>
       <c r="E4" t="n">
-        <v>3.640700598863478e-05</v>
+        <v>0.0001656702494370201</v>
       </c>
       <c r="F4" t="n">
-        <v>7.741429326908483e-08</v>
+        <v>7.009479745959462e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002914289439905459</v>
+        <v>4.549558367718013e-09</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9938805814763771</v>
+        <v>0.9964764131359134</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -597,82 +597,6 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>g__Agathobaculum</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81714.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.02608777311964e-07</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9964764131359134</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.003356808508339486</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0001656702494370201</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.009479745959462e-07</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.549558367718013e-09</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9964764131359134</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>g__Agathobaculum</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__Agathobaculum</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81784.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6.756873199756367e-07</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1599001353544064</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.810584328760709</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0277929199823798</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.442586241818242e-07</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.001721795956560709</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.810584328760709</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>g__Butyricicoccus</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__Butyricicoccus</t>
         </is>
       </c>
     </row>
